--- a/_supporting files/runs21-25.xlsx
+++ b/_supporting files/runs21-25.xlsx
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,15 +745,15 @@
         <v>111</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>IF(C4=B4,"","DIFF")</f>
+        <f t="shared" ref="G4:G18" si="0">IF(C4=B4,"","DIFF")</f>
         <v/>
       </c>
       <c r="H4" s="2" t="str">
-        <f t="shared" ref="H4:I4" si="0">IF(D4=C4,"","DIFF")</f>
+        <f t="shared" ref="H4:I4" si="1">IF(D4=C4,"","DIFF")</f>
         <v/>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -774,15 +774,15 @@
         <v>111</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>IF(C5=B5,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H5" s="2" t="str">
-        <f t="shared" ref="H5:H68" si="1">IF(D5=C5,"","DIFF")</f>
+        <f t="shared" ref="H5:H68" si="2">IF(D5=C5,"","DIFF")</f>
         <v/>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" ref="I5:I68" si="2">IF(E5=D5,"","DIFF")</f>
+        <f t="shared" ref="I5:I68" si="3">IF(E5=D5,"","DIFF")</f>
         <v/>
       </c>
     </row>
@@ -803,15 +803,15 @@
         <v>111</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>IF(C6=B6,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -820,15 +820,15 @@
         <v>111</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>IF(C7=B7,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -849,15 +849,15 @@
         <v>111</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>IF(C8=B8,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -878,15 +878,15 @@
         <v>111</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>IF(C9=B9,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFF</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -907,15 +907,15 @@
         <v>111</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>IF(C10=B10,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -924,15 +924,15 @@
         <v>111</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>IF(C11=B11,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -953,15 +953,15 @@
         <v>111</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>IF(C12=B12,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -982,15 +982,15 @@
         <v>111</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>IF(C13=B13,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v>DIFF</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFF</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DIFF</v>
       </c>
     </row>
@@ -1011,15 +1011,15 @@
         <v>111</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>IF(C14=B14,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1040,15 +1040,15 @@
         <v>111</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f>IF(C15=B15,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1069,15 +1069,15 @@
         <v>111</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>IF(C16=B16,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1098,15 +1098,15 @@
         <v>111</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>IF(C17=B17,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1127,15 +1127,15 @@
         <v>111</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>IF(C18=B18,"","DIFF")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1144,15 +1144,15 @@
         <v>111</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f t="shared" ref="G19:G82" si="3">IF(C19=B19,"","DIFF")</f>
+        <f t="shared" ref="G19:G82" si="4">IF(C19=B19,"","DIFF")</f>
         <v/>
       </c>
       <c r="H19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1173,15 +1173,15 @@
         <v>111</v>
       </c>
       <c r="G20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I20" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1202,15 +1202,15 @@
         <v>111</v>
       </c>
       <c r="G21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I21" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1231,15 +1231,15 @@
         <v>111</v>
       </c>
       <c r="G22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I22" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1260,15 +1260,15 @@
         <v>111</v>
       </c>
       <c r="G23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I23" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1289,15 +1289,15 @@
         <v>111</v>
       </c>
       <c r="G24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I24" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1318,15 +1318,15 @@
         <v>111</v>
       </c>
       <c r="G25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1347,15 +1347,15 @@
         <v>111</v>
       </c>
       <c r="G26" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1376,15 +1376,15 @@
         <v>111</v>
       </c>
       <c r="G27" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1405,15 +1405,15 @@
         <v>111</v>
       </c>
       <c r="G28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1434,15 +1434,15 @@
         <v>111</v>
       </c>
       <c r="G29" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1463,15 +1463,15 @@
         <v>111</v>
       </c>
       <c r="G30" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I30" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1492,15 +1492,15 @@
         <v>111</v>
       </c>
       <c r="G31" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I31" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1521,15 +1521,15 @@
         <v>111</v>
       </c>
       <c r="G32" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I32" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1550,15 +1550,15 @@
         <v>111</v>
       </c>
       <c r="G33" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I33" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1579,15 +1579,15 @@
         <v>111</v>
       </c>
       <c r="G34" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1608,15 +1608,15 @@
         <v>111</v>
       </c>
       <c r="G35" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1637,15 +1637,15 @@
         <v>111</v>
       </c>
       <c r="G36" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1666,15 +1666,15 @@
         <v>111</v>
       </c>
       <c r="G37" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I37" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1695,15 +1695,15 @@
         <v>111</v>
       </c>
       <c r="G38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I38" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1712,15 +1712,15 @@
         <v>111</v>
       </c>
       <c r="G39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I39" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1741,15 +1741,15 @@
         <v>111</v>
       </c>
       <c r="G40" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I40" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1770,15 +1770,15 @@
         <v>111</v>
       </c>
       <c r="G41" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I41" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1799,15 +1799,15 @@
         <v>111</v>
       </c>
       <c r="G42" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I42" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1828,15 +1828,15 @@
         <v>111</v>
       </c>
       <c r="G43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I43" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1857,15 +1857,15 @@
         <v>111</v>
       </c>
       <c r="G44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I44" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1886,15 +1886,15 @@
         <v>111</v>
       </c>
       <c r="G45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I45" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1915,15 +1915,15 @@
         <v>111</v>
       </c>
       <c r="G46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I46" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1944,15 +1944,15 @@
         <v>111</v>
       </c>
       <c r="G47" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I47" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1961,15 +1961,15 @@
         <v>111</v>
       </c>
       <c r="G48" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1990,15 +1990,15 @@
         <v>111</v>
       </c>
       <c r="G49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2007,15 +2007,15 @@
         <v>111</v>
       </c>
       <c r="G50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2036,15 +2036,15 @@
         <v>111</v>
       </c>
       <c r="G51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I51" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2065,15 +2065,15 @@
         <v>111</v>
       </c>
       <c r="G52" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I52" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2082,15 +2082,15 @@
         <v>111</v>
       </c>
       <c r="G53" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I53" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2111,15 +2111,15 @@
         <v>111</v>
       </c>
       <c r="G54" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I54" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2140,15 +2140,15 @@
         <v>111</v>
       </c>
       <c r="G55" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I55" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2169,15 +2169,15 @@
         <v>111</v>
       </c>
       <c r="G56" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I56" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I56" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2198,15 +2198,15 @@
         <v>111</v>
       </c>
       <c r="G57" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I57" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I57" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2227,15 +2227,15 @@
         <v>111</v>
       </c>
       <c r="G58" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I58" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H58" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I58" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2256,15 +2256,15 @@
         <v>111</v>
       </c>
       <c r="G59" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I59" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H59" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I59" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2285,15 +2285,15 @@
         <v>111</v>
       </c>
       <c r="G60" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I60" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H60" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I60" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2314,15 +2314,15 @@
         <v>111</v>
       </c>
       <c r="G61" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I61" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H61" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I61" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2343,15 +2343,15 @@
         <v>111</v>
       </c>
       <c r="G62" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I62" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I62" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2360,15 +2360,15 @@
         <v>111</v>
       </c>
       <c r="G63" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I63" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I63" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2389,15 +2389,15 @@
         <v>111</v>
       </c>
       <c r="G64" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I64" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H64" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I64" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2418,15 +2418,15 @@
         <v>111</v>
       </c>
       <c r="G65" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFF</v>
+      </c>
+      <c r="H65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I65" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DIFF</v>
-      </c>
-      <c r="H65" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I65" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2438,15 +2438,15 @@
         <v>111</v>
       </c>
       <c r="G66" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I66" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H66" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I66" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>DIFF</v>
       </c>
     </row>
@@ -2455,15 +2455,15 @@
         <v>111</v>
       </c>
       <c r="G67" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I67" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H67" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I67" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2472,15 +2472,15 @@
         <v>111</v>
       </c>
       <c r="G68" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H68" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I68" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I68" s="2" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2501,15 +2501,15 @@
         <v>111</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H69" s="2" t="str">
-        <f t="shared" ref="H69:H132" si="4">IF(D69=C69,"","DIFF")</f>
+        <f t="shared" ref="H69:H132" si="5">IF(D69=C69,"","DIFF")</f>
         <v/>
       </c>
       <c r="I69" s="2" t="str">
-        <f t="shared" ref="I69:I132" si="5">IF(E69=D69,"","DIFF")</f>
+        <f t="shared" ref="I69:I132" si="6">IF(E69=D69,"","DIFF")</f>
         <v/>
       </c>
     </row>
@@ -2530,15 +2530,15 @@
         <v>111</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H70" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I70" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2559,15 +2559,15 @@
         <v>111</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H71" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I71" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2588,15 +2588,15 @@
         <v>111</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H72" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I72" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2617,15 +2617,15 @@
         <v>111</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H73" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I73" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2646,15 +2646,15 @@
         <v>111</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H74" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2675,15 +2675,15 @@
         <v>111</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H75" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2704,15 +2704,15 @@
         <v>111</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H76" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2733,15 +2733,15 @@
         <v>111</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H77" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2762,15 +2762,15 @@
         <v>111</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H78" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2791,15 +2791,15 @@
         <v>111</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H79" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2820,15 +2820,15 @@
         <v>111</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H80" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2849,15 +2849,15 @@
         <v>111</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H81" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2878,15 +2878,15 @@
         <v>111</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H82" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2907,15 +2907,15 @@
         <v>111</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f t="shared" ref="G83:G146" si="6">IF(C83=B83,"","DIFF")</f>
+        <f t="shared" ref="G83:G146" si="7">IF(C83=B83,"","DIFF")</f>
         <v/>
       </c>
       <c r="H83" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I83" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2936,15 +2936,15 @@
         <v>111</v>
       </c>
       <c r="G84" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H84" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I84" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H84" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I84" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2953,15 +2953,15 @@
         <v>111</v>
       </c>
       <c r="G85" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H85" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I85" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H85" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I85" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2982,15 +2982,15 @@
         <v>111</v>
       </c>
       <c r="G86" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H86" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I86" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H86" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I86" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3011,15 +3011,15 @@
         <v>111</v>
       </c>
       <c r="G87" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H87" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I87" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H87" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I87" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3040,15 +3040,15 @@
         <v>111</v>
       </c>
       <c r="G88" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H88" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I88" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H88" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I88" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3069,15 +3069,15 @@
         <v>111</v>
       </c>
       <c r="G89" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H89" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I89" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I89" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3098,15 +3098,15 @@
         <v>111</v>
       </c>
       <c r="G90" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H90" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I90" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I90" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3127,15 +3127,15 @@
         <v>111</v>
       </c>
       <c r="G91" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H91" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I91" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H91" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I91" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3156,15 +3156,15 @@
         <v>111</v>
       </c>
       <c r="G92" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H92" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I92" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H92" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I92" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3185,15 +3185,15 @@
         <v>111</v>
       </c>
       <c r="G93" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H93" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I93" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H93" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I93" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3214,15 +3214,15 @@
         <v>111</v>
       </c>
       <c r="G94" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H94" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I94" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I94" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3243,15 +3243,15 @@
         <v>111</v>
       </c>
       <c r="G95" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H95" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I95" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I95" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3272,15 +3272,15 @@
         <v>111</v>
       </c>
       <c r="G96" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H96" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I96" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I96" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3301,15 +3301,15 @@
         <v>111</v>
       </c>
       <c r="G97" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H97" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I97" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H97" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I97" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3330,15 +3330,15 @@
         <v>111</v>
       </c>
       <c r="G98" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H98" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I98" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H98" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I98" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3347,15 +3347,15 @@
         <v>111</v>
       </c>
       <c r="G99" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H99" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I99" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H99" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I99" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3376,15 +3376,15 @@
         <v>111</v>
       </c>
       <c r="G100" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H100" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I100" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H100" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I100" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3405,15 +3405,15 @@
         <v>111</v>
       </c>
       <c r="G101" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>DIFF</v>
+      </c>
+      <c r="H101" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>DIFF</v>
+      </c>
+      <c r="I101" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>DIFF</v>
-      </c>
-      <c r="H101" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DIFF</v>
-      </c>
-      <c r="I101" s="2" t="str">
-        <f t="shared" si="5"/>
         <v>DIFF</v>
       </c>
     </row>
@@ -3434,32 +3434,32 @@
         <v>111</v>
       </c>
       <c r="G102" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>DIFF</v>
+      </c>
+      <c r="H102" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>DIFF</v>
+      </c>
+      <c r="I102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>DIFF</v>
       </c>
-      <c r="H102" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DIFF</v>
-      </c>
-      <c r="I102" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>DIFF</v>
-      </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F103" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G103" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H103" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I103" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H103" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I103" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3480,15 +3480,15 @@
         <v>111</v>
       </c>
       <c r="G104" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H104" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I104" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H104" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I104" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3509,15 +3509,15 @@
         <v>111</v>
       </c>
       <c r="G105" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H105" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I105" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H105" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I105" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3538,15 +3538,15 @@
         <v>111</v>
       </c>
       <c r="G106" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H106" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I106" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H106" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I106" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3567,15 +3567,15 @@
         <v>111</v>
       </c>
       <c r="G107" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H107" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I107" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H107" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I107" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3596,15 +3596,15 @@
         <v>111</v>
       </c>
       <c r="G108" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H108" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I108" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H108" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I108" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3625,15 +3625,15 @@
         <v>111</v>
       </c>
       <c r="G109" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H109" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I109" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H109" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I109" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3654,15 +3654,15 @@
         <v>111</v>
       </c>
       <c r="G110" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H110" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I110" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H110" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I110" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3671,15 +3671,15 @@
         <v>111</v>
       </c>
       <c r="G111" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H111" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I111" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H111" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I111" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3700,15 +3700,15 @@
         <v>111</v>
       </c>
       <c r="G112" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H112" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I112" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H112" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I112" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3729,15 +3729,15 @@
         <v>111</v>
       </c>
       <c r="G113" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H113" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I113" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H113" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I113" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3758,15 +3758,15 @@
         <v>111</v>
       </c>
       <c r="G114" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H114" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I114" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H114" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I114" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3787,15 +3787,15 @@
         <v>111</v>
       </c>
       <c r="G115" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>DIFF</v>
+      </c>
+      <c r="H115" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>DIFF</v>
+      </c>
+      <c r="I115" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>DIFF</v>
-      </c>
-      <c r="H115" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DIFF</v>
-      </c>
-      <c r="I115" s="2" t="str">
-        <f t="shared" si="5"/>
         <v>DIFF</v>
       </c>
     </row>
@@ -3816,15 +3816,15 @@
         <v>111</v>
       </c>
       <c r="G116" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H116" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I116" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H116" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I116" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3833,15 +3833,15 @@
         <v>111</v>
       </c>
       <c r="G117" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H117" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I117" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H117" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I117" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3850,15 +3850,15 @@
         <v>111</v>
       </c>
       <c r="G118" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H118" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I118" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H118" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I118" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3867,15 +3867,15 @@
         <v>111</v>
       </c>
       <c r="G119" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H119" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I119" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H119" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I119" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3884,15 +3884,15 @@
         <v>111</v>
       </c>
       <c r="G120" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H120" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I120" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H120" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I120" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3901,15 +3901,15 @@
         <v>111</v>
       </c>
       <c r="G121" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H121" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I121" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H121" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I121" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3918,15 +3918,15 @@
         <v>111</v>
       </c>
       <c r="G122" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H122" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I122" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H122" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I122" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3935,15 +3935,15 @@
         <v>111</v>
       </c>
       <c r="G123" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H123" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I123" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H123" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I123" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3952,15 +3952,15 @@
         <v>111</v>
       </c>
       <c r="G124" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I124" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H124" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I124" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3969,15 +3969,15 @@
         <v>111</v>
       </c>
       <c r="G125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H125" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I125" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H125" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I125" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3986,15 +3986,15 @@
         <v>111</v>
       </c>
       <c r="G126" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H126" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I126" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H126" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I126" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4003,15 +4003,15 @@
         <v>111</v>
       </c>
       <c r="G127" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H127" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I127" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H127" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I127" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4020,15 +4020,15 @@
         <v>111</v>
       </c>
       <c r="G128" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H128" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I128" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H128" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I128" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4037,15 +4037,15 @@
         <v>111</v>
       </c>
       <c r="G129" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H129" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I129" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H129" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I129" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4054,15 +4054,15 @@
         <v>111</v>
       </c>
       <c r="G130" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H130" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I130" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H130" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I130" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4071,15 +4071,15 @@
         <v>111</v>
       </c>
       <c r="G131" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H131" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I131" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H131" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I131" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4088,15 +4088,15 @@
         <v>111</v>
       </c>
       <c r="G132" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H132" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I132" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H132" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I132" s="2" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4105,15 +4105,15 @@
         <v>111</v>
       </c>
       <c r="G133" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H133" s="2" t="str">
-        <f t="shared" ref="H133:H196" si="7">IF(D133=C133,"","DIFF")</f>
+        <f t="shared" ref="H133:H196" si="8">IF(D133=C133,"","DIFF")</f>
         <v/>
       </c>
       <c r="I133" s="2" t="str">
-        <f t="shared" ref="I133:I196" si="8">IF(E133=D133,"","DIFF")</f>
+        <f t="shared" ref="I133:I196" si="9">IF(E133=D133,"","DIFF")</f>
         <v/>
       </c>
     </row>
@@ -4122,15 +4122,15 @@
         <v>111</v>
       </c>
       <c r="G134" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H134" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I134" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4139,15 +4139,15 @@
         <v>111</v>
       </c>
       <c r="G135" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H135" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I135" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4156,15 +4156,15 @@
         <v>111</v>
       </c>
       <c r="G136" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H136" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I136" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4173,15 +4173,15 @@
         <v>111</v>
       </c>
       <c r="G137" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H137" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I137" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4190,15 +4190,15 @@
         <v>111</v>
       </c>
       <c r="G138" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H138" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I138" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4207,15 +4207,15 @@
         <v>111</v>
       </c>
       <c r="G139" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H139" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I139" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4224,15 +4224,15 @@
         <v>111</v>
       </c>
       <c r="G140" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H140" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I140" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4241,15 +4241,15 @@
         <v>111</v>
       </c>
       <c r="G141" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H141" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I141" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4258,15 +4258,15 @@
         <v>111</v>
       </c>
       <c r="G142" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H142" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I142" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4275,15 +4275,15 @@
         <v>111</v>
       </c>
       <c r="G143" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H143" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I143" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4292,15 +4292,15 @@
         <v>111</v>
       </c>
       <c r="G144" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H144" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I144" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4309,15 +4309,15 @@
         <v>111</v>
       </c>
       <c r="G145" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H145" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I145" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4326,15 +4326,15 @@
         <v>111</v>
       </c>
       <c r="G146" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H146" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I146" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4343,15 +4343,15 @@
         <v>111</v>
       </c>
       <c r="G147" s="2" t="str">
-        <f t="shared" ref="G147:G210" si="9">IF(C147=B147,"","DIFF")</f>
+        <f t="shared" ref="G147:G210" si="10">IF(C147=B147,"","DIFF")</f>
         <v/>
       </c>
       <c r="H147" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I147" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4360,15 +4360,15 @@
         <v>111</v>
       </c>
       <c r="G148" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H148" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I148" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H148" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I148" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4377,15 +4377,15 @@
         <v>111</v>
       </c>
       <c r="G149" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H149" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I149" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H149" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I149" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4394,15 +4394,15 @@
         <v>111</v>
       </c>
       <c r="G150" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H150" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I150" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H150" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I150" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4411,15 +4411,15 @@
         <v>111</v>
       </c>
       <c r="G151" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H151" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I151" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H151" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I151" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4428,15 +4428,15 @@
         <v>111</v>
       </c>
       <c r="G152" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H152" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I152" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H152" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I152" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4445,15 +4445,15 @@
         <v>111</v>
       </c>
       <c r="G153" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H153" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I153" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H153" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I153" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4462,15 +4462,15 @@
         <v>111</v>
       </c>
       <c r="G154" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H154" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I154" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H154" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I154" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4479,15 +4479,15 @@
         <v>111</v>
       </c>
       <c r="G155" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H155" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I155" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H155" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I155" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4496,15 +4496,15 @@
         <v>111</v>
       </c>
       <c r="G156" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H156" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I156" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H156" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I156" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4513,15 +4513,15 @@
         <v>111</v>
       </c>
       <c r="G157" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H157" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I157" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H157" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I157" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4530,15 +4530,15 @@
         <v>111</v>
       </c>
       <c r="G158" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H158" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I158" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H158" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I158" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4547,15 +4547,15 @@
         <v>111</v>
       </c>
       <c r="G159" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H159" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I159" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H159" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I159" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4564,15 +4564,15 @@
         <v>111</v>
       </c>
       <c r="G160" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H160" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I160" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H160" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I160" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4581,15 +4581,15 @@
         <v>111</v>
       </c>
       <c r="G161" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H161" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I161" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H161" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I161" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4598,15 +4598,15 @@
         <v>111</v>
       </c>
       <c r="G162" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H162" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I162" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H162" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I162" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4615,15 +4615,15 @@
         <v>111</v>
       </c>
       <c r="G163" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H163" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I163" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H163" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I163" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4632,15 +4632,15 @@
         <v>111</v>
       </c>
       <c r="G164" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H164" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I164" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H164" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I164" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4649,15 +4649,15 @@
         <v>111</v>
       </c>
       <c r="G165" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H165" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I165" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H165" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I165" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4666,2199 +4666,2199 @@
         <v>111</v>
       </c>
       <c r="G166" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H166" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I166" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H166" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I166" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G167" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H167" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I167" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H167" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I167" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G168" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H168" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I168" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H168" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I168" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G169" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H169" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I169" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H169" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I169" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G170" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H170" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I170" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H170" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I170" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G171" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H171" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I171" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H171" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I171" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G172" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H172" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I172" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H172" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I172" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G173" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H173" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I173" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H173" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I173" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G174" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H174" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I174" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H174" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I174" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G175" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H175" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I175" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H175" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I175" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G176" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H176" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I176" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H176" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I176" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G177" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H177" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I177" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H177" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I177" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G178" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H178" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I178" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H178" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I178" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G179" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H179" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I179" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H179" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I179" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G180" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H180" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I180" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H180" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I180" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G181" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H181" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I181" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H181" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I181" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G182" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H182" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I182" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H182" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I182" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G183" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H183" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I183" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H183" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I183" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G184" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H184" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I184" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H184" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I184" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G185" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H185" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I185" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H185" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I185" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G186" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H186" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I186" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H186" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I186" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G187" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H187" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I187" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H187" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I187" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G188" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H188" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I188" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H188" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I188" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G189" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H189" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I189" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H189" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I189" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G190" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H190" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I190" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H190" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I190" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G191" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H191" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I191" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H191" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I191" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G192" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H192" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I192" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H192" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I192" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G193" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H193" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I193" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H193" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I193" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G194" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H194" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I194" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H194" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I194" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G195" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H195" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I195" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H195" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I195" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G196" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H196" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I196" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H196" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I196" s="2" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G197" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H197" s="2" t="str">
-        <f t="shared" ref="H197:H260" si="10">IF(D197=C197,"","DIFF")</f>
+        <f t="shared" ref="H197:H260" si="11">IF(D197=C197,"","DIFF")</f>
         <v/>
       </c>
       <c r="I197" s="2" t="str">
-        <f t="shared" ref="I197:I260" si="11">IF(E197=D197,"","DIFF")</f>
+        <f t="shared" ref="I197:I260" si="12">IF(E197=D197,"","DIFF")</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G198" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H198" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I198" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G199" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H199" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I199" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G200" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H200" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I200" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G201" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H201" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I201" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G202" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H202" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I202" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G203" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H203" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I203" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G204" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H204" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I204" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G205" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H205" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I205" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G206" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H206" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I206" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G207" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H207" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I207" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G208" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H208" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I208" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G209" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H209" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I209" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G210" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H210" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I210" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G211" s="2" t="str">
-        <f t="shared" ref="G211:G274" si="12">IF(C211=B211,"","DIFF")</f>
+        <f t="shared" ref="G211:G274" si="13">IF(C211=B211,"","DIFF")</f>
         <v/>
       </c>
       <c r="H211" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I211" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G212" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H212" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I212" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H212" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I212" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G213" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H213" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I213" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H213" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I213" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G214" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H214" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I214" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H214" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I214" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G215" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H215" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I215" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H215" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I215" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G216" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H216" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I216" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H216" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I216" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G217" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H217" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I217" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H217" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I217" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G218" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H218" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I218" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H218" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I218" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G219" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H219" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I219" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H219" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I219" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G220" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H220" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I220" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H220" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I220" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G221" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H221" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I221" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H221" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I221" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G222" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H222" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I222" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H222" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I222" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G223" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H223" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I223" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H223" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I223" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G224" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H224" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I224" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H224" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I224" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G225" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H225" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I225" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H225" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I225" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G226" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H226" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I226" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H226" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I226" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G227" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H227" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I227" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H227" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I227" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G228" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H228" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I228" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H228" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I228" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G229" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H229" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I229" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H229" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I229" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G230" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H230" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I230" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H230" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I230" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G231" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H231" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I231" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H231" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I231" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G232" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H232" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I232" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H232" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I232" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G233" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H233" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I233" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H233" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I233" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G234" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H234" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I234" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H234" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I234" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G235" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H235" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I235" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H235" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I235" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G236" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H236" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I236" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H236" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I236" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G237" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H237" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I237" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H237" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I237" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G238" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H238" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I238" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H238" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I238" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G239" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H239" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I239" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H239" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I239" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G240" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H240" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I240" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H240" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I240" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G241" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H241" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I241" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H241" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I241" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G242" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H242" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I242" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H242" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I242" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G243" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H243" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I243" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H243" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I243" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G244" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H244" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I244" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H244" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I244" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G245" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H245" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I245" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H245" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I245" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G246" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H246" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I246" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H246" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I246" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G247" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H247" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I247" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H247" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I247" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G248" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H248" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I248" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H248" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I248" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G249" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H249" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I249" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H249" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I249" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G250" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H250" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I250" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H250" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I250" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G251" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H251" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I251" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H251" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I251" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G252" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H252" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I252" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H252" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I252" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G253" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H253" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I253" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H253" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I253" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G254" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H254" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I254" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H254" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I254" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G255" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H255" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I255" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H255" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I255" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G256" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H256" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I256" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H256" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I256" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G257" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H257" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I257" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H257" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I257" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G258" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H258" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I258" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H258" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I258" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G259" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H259" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I259" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H259" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I259" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G260" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H260" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I260" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H260" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I260" s="2" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G261" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H261" s="2" t="str">
-        <f t="shared" ref="H261:H322" si="13">IF(D261=C261,"","DIFF")</f>
+        <f t="shared" ref="H261:H322" si="14">IF(D261=C261,"","DIFF")</f>
         <v/>
       </c>
       <c r="I261" s="2" t="str">
-        <f t="shared" ref="I261:I322" si="14">IF(E261=D261,"","DIFF")</f>
+        <f t="shared" ref="I261:I322" si="15">IF(E261=D261,"","DIFF")</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G262" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H262" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I262" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G263" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H263" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I263" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G264" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H264" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I264" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G265" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H265" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I265" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G266" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H266" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I266" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G267" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H267" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I267" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G268" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H268" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I268" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G269" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H269" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I269" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G270" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H270" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I270" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G271" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H271" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I271" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G272" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H272" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I272" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G273" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H273" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I273" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G274" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H274" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I274" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G275" s="2" t="str">
-        <f t="shared" ref="G275:G322" si="15">IF(C275=B275,"","DIFF")</f>
+        <f t="shared" ref="G275:G322" si="16">IF(C275=B275,"","DIFF")</f>
         <v/>
       </c>
       <c r="H275" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I275" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G276" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H276" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I276" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H276" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I276" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G277" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H277" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I277" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H277" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I277" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G278" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H278" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I278" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H278" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I278" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G279" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H279" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I279" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H279" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I279" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G280" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H280" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I280" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H280" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I280" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G281" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H281" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I281" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H281" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I281" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G282" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H282" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I282" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H282" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I282" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G283" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H283" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I283" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H283" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I283" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G284" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H284" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I284" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H284" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I284" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G285" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H285" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I285" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H285" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I285" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G286" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H286" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I286" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H286" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I286" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G287" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H287" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I287" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H287" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I287" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G288" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H288" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I288" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H288" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I288" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G289" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H289" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I289" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H289" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I289" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G290" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H290" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I290" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H290" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I290" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G291" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H291" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I291" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H291" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I291" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G292" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H292" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I292" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H292" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I292" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G293" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H293" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I293" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H293" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I293" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G294" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H294" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I294" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H294" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I294" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G295" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H295" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I295" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H295" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I295" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G296" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H296" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I296" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H296" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I296" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G297" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H297" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I297" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H297" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I297" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G298" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H298" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I298" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H298" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I298" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G299" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H299" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I299" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H299" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I299" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G300" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H300" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I300" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H300" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I300" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G301" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H301" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I301" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H301" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I301" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G302" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H302" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I302" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H302" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I302" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G303" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H303" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I303" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H303" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I303" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G304" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H304" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I304" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H304" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I304" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G305" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H305" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I305" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H305" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I305" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G306" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H306" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I306" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H306" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I306" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G307" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H307" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I307" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H307" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I307" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G308" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H308" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I308" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H308" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I308" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G309" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H309" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I309" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H309" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I309" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G310" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H310" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I310" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H310" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I310" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G311" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H311" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I311" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H311" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I311" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G312" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H312" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I312" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H312" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I312" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G313" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H313" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I313" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H313" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I313" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G314" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H314" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I314" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H314" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I314" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G315" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H315" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I315" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H315" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I315" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G316" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H316" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I316" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H316" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I316" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G317" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H317" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I317" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H317" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I317" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G318" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H318" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I318" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H318" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I318" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G319" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H319" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I319" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H319" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I319" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G320" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H320" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I320" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H320" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I320" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G321" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H321" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I321" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H321" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I321" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G322" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H322" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I322" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H322" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I322" s="2" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
